--- a/ADNIsubjectsPreprocessTrack.xlsx
+++ b/ADNIsubjectsPreprocessTrack.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="228">
   <si>
     <t xml:space="preserve">003_S_4136                                                   </t>
   </si>
@@ -189,9 +189,6 @@
     <t>126_S_4494</t>
   </si>
   <si>
-    <t>Total Number processed subjects ADNI</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
@@ -673,6 +670,36 @@
   </si>
   <si>
     <t>Normal</t>
+  </si>
+  <si>
+    <t>Rawdata</t>
+  </si>
+  <si>
+    <t>Results</t>
+  </si>
+  <si>
+    <t>/hecuba/mcintosh_lab/jwang/results/DTI/</t>
+  </si>
+  <si>
+    <t>/hecuba/mcintosh_lab/kshen/ADNI_PPMI/ADNI/wDTI?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check the file </t>
+  </si>
+  <si>
+    <t>${subID}/mrtrix_96/tracks_96/${subID}_SC.mat</t>
+  </si>
+  <si>
+    <t>NO. processed subjects ADNI</t>
+  </si>
+  <si>
+    <t>Total subjects</t>
+  </si>
+  <si>
+    <t>Fail subjects</t>
+  </si>
+  <si>
+    <t>running subjects</t>
   </si>
 </sst>
 </file>
@@ -1004,10 +1031,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J215"/>
+  <dimension ref="A1:K215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1019,7 +1046,7 @@
     <col min="10" max="10" width="37.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -1032,8 +1059,11 @@
       <c r="E1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="J1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1044,13 +1074,16 @@
         <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="G2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>164</v>
+      </c>
+      <c r="J2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1061,13 +1094,13 @@
         <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1081,10 +1114,13 @@
         <v>48</v>
       </c>
       <c r="G4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>164</v>
+      </c>
+      <c r="J4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1098,10 +1134,13 @@
         <v>48</v>
       </c>
       <c r="G5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>164</v>
+      </c>
+      <c r="J5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1115,10 +1154,10 @@
         <v>48</v>
       </c>
       <c r="G6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1132,10 +1171,16 @@
         <v>48</v>
       </c>
       <c r="G7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>164</v>
+      </c>
+      <c r="J7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1149,10 +1194,10 @@
         <v>48</v>
       </c>
       <c r="G8" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>49</v>
       </c>
@@ -1166,13 +1211,13 @@
         <v>48</v>
       </c>
       <c r="G9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1186,14 +1231,14 @@
         <v>48</v>
       </c>
       <c r="G10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J10">
         <f>COUNTIF(E:E,"Y")</f>
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1207,10 +1252,10 @@
         <v>48</v>
       </c>
       <c r="G11" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1224,10 +1269,13 @@
         <v>48</v>
       </c>
       <c r="G12" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>164</v>
+      </c>
+      <c r="J12" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1241,10 +1289,14 @@
         <v>48</v>
       </c>
       <c r="G13" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>164</v>
+      </c>
+      <c r="J13">
+        <f>COUNTA(A:A)-1</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -1258,10 +1310,10 @@
         <v>48</v>
       </c>
       <c r="G14" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -1275,10 +1327,13 @@
         <v>48</v>
       </c>
       <c r="G15" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>164</v>
+      </c>
+      <c r="J15" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -1292,10 +1347,14 @@
         <v>48</v>
       </c>
       <c r="G16" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>164</v>
+      </c>
+      <c r="J16">
+        <f>COUNTIF(E:E,"X")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>51</v>
       </c>
@@ -1309,10 +1368,10 @@
         <v>48</v>
       </c>
       <c r="G17" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -1326,10 +1385,13 @@
         <v>48</v>
       </c>
       <c r="G18" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>164</v>
+      </c>
+      <c r="J18" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -1343,10 +1405,14 @@
         <v>48</v>
       </c>
       <c r="G19" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>164</v>
+      </c>
+      <c r="J19">
+        <f>COUNTA(B:B)-COUNTA(E:E)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -1360,10 +1426,10 @@
         <v>48</v>
       </c>
       <c r="G20" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -1377,10 +1443,10 @@
         <v>48</v>
       </c>
       <c r="G21" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -1394,10 +1460,10 @@
         <v>48</v>
       </c>
       <c r="G22" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -1411,10 +1477,10 @@
         <v>48</v>
       </c>
       <c r="G23" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -1428,10 +1494,10 @@
         <v>48</v>
       </c>
       <c r="G24" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -1445,10 +1511,10 @@
         <v>48</v>
       </c>
       <c r="G25" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -1462,10 +1528,10 @@
         <v>48</v>
       </c>
       <c r="G26" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -1476,13 +1542,13 @@
         <v>46</v>
       </c>
       <c r="E27" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="G27" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" t="s">
         <v>23</v>
       </c>
@@ -1496,10 +1562,10 @@
         <v>48</v>
       </c>
       <c r="G28" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -1513,10 +1579,10 @@
         <v>48</v>
       </c>
       <c r="G29" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" t="s">
         <v>25</v>
       </c>
@@ -1524,16 +1590,16 @@
         <v>48</v>
       </c>
       <c r="C30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G30" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" t="s">
         <v>52</v>
       </c>
@@ -1547,10 +1613,10 @@
         <v>48</v>
       </c>
       <c r="G31" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" t="s">
         <v>26</v>
       </c>
@@ -1564,7 +1630,7 @@
         <v>48</v>
       </c>
       <c r="G32" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1581,7 +1647,7 @@
         <v>48</v>
       </c>
       <c r="G33" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1598,7 +1664,7 @@
         <v>48</v>
       </c>
       <c r="G34" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1615,7 +1681,7 @@
         <v>48</v>
       </c>
       <c r="G35" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1632,7 +1698,7 @@
         <v>48</v>
       </c>
       <c r="G36" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1649,7 +1715,7 @@
         <v>48</v>
       </c>
       <c r="G37" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1666,7 +1732,7 @@
         <v>48</v>
       </c>
       <c r="G38" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1683,7 +1749,7 @@
         <v>48</v>
       </c>
       <c r="G39" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1700,7 +1766,7 @@
         <v>48</v>
       </c>
       <c r="G40" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1717,7 +1783,7 @@
         <v>48</v>
       </c>
       <c r="G41" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1734,7 +1800,7 @@
         <v>48</v>
       </c>
       <c r="G42" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1751,7 +1817,7 @@
         <v>48</v>
       </c>
       <c r="G43" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1768,7 +1834,7 @@
         <v>48</v>
       </c>
       <c r="G44" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1785,7 +1851,7 @@
         <v>48</v>
       </c>
       <c r="G45" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1802,7 +1868,7 @@
         <v>48</v>
       </c>
       <c r="G46" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1819,7 +1885,7 @@
         <v>48</v>
       </c>
       <c r="G47" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1836,7 +1902,7 @@
         <v>48</v>
       </c>
       <c r="G48" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1853,7 +1919,7 @@
         <v>48</v>
       </c>
       <c r="G49" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1870,1255 +1936,1255 @@
         <v>48</v>
       </c>
       <c r="G50" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G53" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G54" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G55" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G56" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G57" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G58" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G59" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G60" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G61" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G62" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G63" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G64" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G65" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G66" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G67" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G68" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G69" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G70" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G71" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G72" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G73" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G74" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G75" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G76" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G77" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G78" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G79" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G80" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G81" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G82" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G83" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G84" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G85" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G86" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G87" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G88" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G89" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G90" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G91" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G92" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G93" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G94" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G95" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G96" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G97" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G98" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G99" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G100" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G101" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G102" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G103" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G104" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G105" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G106" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G107" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G108" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G109" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G110" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G111" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G112" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G113" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G114" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G115" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G116" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="117" spans="1:7">
       <c r="A117" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G117" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="118" spans="1:7">
       <c r="A118" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G118" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G119" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="124" spans="1:7">
       <c r="A124" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G124" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G125" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="126" spans="1:7">
       <c r="A126" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G126" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G127" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="128" spans="1:7">
       <c r="A128" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G128" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G129" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G130" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G131" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="132" spans="1:7">
       <c r="A132" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G132" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G133" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G134" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G135" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G136" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G137" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G138" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G139" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="140" spans="1:7">
       <c r="A140" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G140" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G141" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G142" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G143" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G144" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="145" spans="1:7">
       <c r="A145" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G145" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G146" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="147" spans="1:7">
       <c r="A147" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G147" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="148" spans="1:7">
       <c r="A148" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G148" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G149" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G150" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G151" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G152" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G153" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G154" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G155" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G156" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G157" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G158" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="159" spans="1:7">
       <c r="A159" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G159" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G160" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="164" spans="1:7">
       <c r="A164" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G164" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="165" spans="1:7">
       <c r="A165" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G165" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="166" spans="1:7">
       <c r="A166" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G166" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="167" spans="1:7">
       <c r="A167" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G167" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="168" spans="1:7">
       <c r="A168" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G168" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="169" spans="1:7">
       <c r="A169" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G169" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="170" spans="1:7">
       <c r="A170" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G170" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="171" spans="1:7">
       <c r="A171" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G171" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="172" spans="1:7">
       <c r="A172" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G172" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="173" spans="1:7">
       <c r="A173" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G173" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="174" spans="1:7">
       <c r="A174" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G174" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="175" spans="1:7">
       <c r="A175" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G175" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="176" spans="1:7">
       <c r="A176" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G176" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="177" spans="1:7">
       <c r="A177" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G177" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="178" spans="1:7">
       <c r="A178" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G178" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="179" spans="1:7">
       <c r="A179" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G179" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="180" spans="1:7">
       <c r="A180" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G180" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="181" spans="1:7">
       <c r="A181" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G181" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="182" spans="1:7">
       <c r="A182" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G182" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="183" spans="1:7">
       <c r="A183" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G183" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="184" spans="1:7">
       <c r="A184" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G184" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="185" spans="1:7">
       <c r="A185" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G185" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="186" spans="1:7">
       <c r="A186" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G186" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="187" spans="1:7">
       <c r="A187" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G187" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="188" spans="1:7">
       <c r="A188" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G188" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="189" spans="1:7">
       <c r="A189" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G189" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="190" spans="1:7">
       <c r="A190" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G190" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="191" spans="1:7">
       <c r="A191" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G191" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="192" spans="1:7">
       <c r="A192" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G192" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="193" spans="1:7">
       <c r="A193" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G193" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="194" spans="1:7">
       <c r="A194" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G194" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="195" spans="1:7">
       <c r="A195" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G195" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="196" spans="1:7">
       <c r="A196" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G196" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="197" spans="1:7">
       <c r="A197" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G197" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="198" spans="1:7">
       <c r="A198" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G198" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="199" spans="1:7">
       <c r="A199" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G199" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="200" spans="1:7">
       <c r="A200" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G200" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="201" spans="1:7">
       <c r="A201" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G201" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="202" spans="1:7">
       <c r="A202" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G202" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="203" spans="1:7">
       <c r="A203" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G203" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="204" spans="1:7">
       <c r="A204" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G204" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="205" spans="1:7">
       <c r="A205" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G205" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="206" spans="1:7">
       <c r="A206" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G206" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="207" spans="1:7">
       <c r="A207" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G207" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="208" spans="1:7">
       <c r="A208" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G208" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="209" spans="1:7">
       <c r="A209" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G209" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="210" spans="1:7">
       <c r="A210" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G210" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="211" spans="1:7">
       <c r="A211" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G211" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="212" spans="1:7">
       <c r="A212" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G212" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="213" spans="1:7">
       <c r="A213" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G213" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="214" spans="1:7">
       <c r="A214" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G214" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="215" spans="1:7">
       <c r="A215" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G215" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
